--- a/biology/Zoologie/Fayoumi/Fayoumi.xlsx
+++ b/biology/Zoologie/Fayoumi/Fayoumi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Fayoumi est une race de poule pondeuse égyptienne originaire du sud-ouest du Caire. 
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa particularité réside dans sa petite taille, avec une moyenne de poids d'œufs légèrement supérieur à 40 grammes, (40 à 45 grammes, avec une forte proportion de jaune). 
-Sa moyenne annuelle varie entre 240 et 280 œufs, contre une faible consommation de nourriture de 60 à 90 grammes par jour, et une bonne résistance à la chaleur ce qui permet une productions soutenue même dans les climats les plus chauds[1].
+Sa moyenne annuelle varie entre 240 et 280 œufs, contre une faible consommation de nourriture de 60 à 90 grammes par jour, et une bonne résistance à la chaleur ce qui permet une productions soutenue même dans les climats les plus chauds.
 En outre elle dispose d’un génotype résistant, ce qui la rend particulièrement prisée par les producteurs d’œufs.
 </t>
         </is>
